--- a/data/pca/factorExposure/factorExposure_2009-02-18.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-02-18.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +714,42 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01684311967887957</v>
+        <v>0.01548071508166054</v>
       </c>
       <c r="C2">
-        <v>0.01049642112253393</v>
+        <v>0.01204138850032221</v>
       </c>
       <c r="D2">
-        <v>-0.01477812741919431</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.01495300265149426</v>
+      </c>
+      <c r="E2">
+        <v>0.002983328696312143</v>
+      </c>
+      <c r="F2">
+        <v>0.003740845098147166</v>
+      </c>
+      <c r="G2">
+        <v>-0.01871289854370997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,220 +760,364 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.08186125432167544</v>
+        <v>0.08441763932543681</v>
       </c>
       <c r="C4">
-        <v>0.08024417926001327</v>
+        <v>0.08560429932254728</v>
       </c>
       <c r="D4">
-        <v>0.06515477749406831</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.06514938464024464</v>
+      </c>
+      <c r="E4">
+        <v>-0.001960787491326201</v>
+      </c>
+      <c r="F4">
+        <v>0.03842502418988152</v>
+      </c>
+      <c r="G4">
+        <v>-0.03094475217102513</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.002544137140645982</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.001079624445870669</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>5.495522111203833e-05</v>
+      </c>
+      <c r="E5">
+        <v>0.002695609777708193</v>
+      </c>
+      <c r="F5">
+        <v>-0.00207905261570371</v>
+      </c>
+      <c r="G5">
+        <v>0.002163801446183397</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.1673021462095512</v>
+        <v>0.1700763078488917</v>
       </c>
       <c r="C6">
-        <v>-0.02008039450281076</v>
+        <v>-0.01230060733326468</v>
       </c>
       <c r="D6">
-        <v>0.05027484452725585</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.05475795466524939</v>
+      </c>
+      <c r="E6">
+        <v>-0.004605073023726909</v>
+      </c>
+      <c r="F6">
+        <v>-0.04866235118391341</v>
+      </c>
+      <c r="G6">
+        <v>0.01363336871598083</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.05493302508048336</v>
+        <v>0.05935904555991184</v>
       </c>
       <c r="C7">
-        <v>0.05525877624202017</v>
+        <v>0.06124863954423725</v>
       </c>
       <c r="D7">
-        <v>0.04304886107684753</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05554399533619796</v>
+      </c>
+      <c r="E7">
+        <v>-0.04003582414896429</v>
+      </c>
+      <c r="F7">
+        <v>0.0680802055376</v>
+      </c>
+      <c r="G7">
+        <v>-0.04676707843288019</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.05749525126060702</v>
+        <v>0.05369194351990331</v>
       </c>
       <c r="C8">
-        <v>0.04493782779004406</v>
+        <v>0.04650623085709032</v>
       </c>
       <c r="D8">
-        <v>-0.02085442969302134</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.02282635158037769</v>
+      </c>
+      <c r="E8">
+        <v>0.02366165446488279</v>
+      </c>
+      <c r="F8">
+        <v>0.03096786449180505</v>
+      </c>
+      <c r="G8">
+        <v>0.003707229332658652</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.06216241544889744</v>
+        <v>0.06544997155449941</v>
       </c>
       <c r="C9">
-        <v>0.08686312346963866</v>
+        <v>0.09057205139885122</v>
       </c>
       <c r="D9">
-        <v>0.08762773346662157</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08354943753724285</v>
+      </c>
+      <c r="E9">
+        <v>-0.003060858018421159</v>
+      </c>
+      <c r="F9">
+        <v>0.06453436710241658</v>
+      </c>
+      <c r="G9">
+        <v>-0.005265976852863802</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1053802067576756</v>
+        <v>0.09797511961748449</v>
       </c>
       <c r="C10">
-        <v>-0.1551322682950547</v>
+        <v>-0.1477811901390604</v>
       </c>
       <c r="D10">
-        <v>-0.1060844482311725</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.09659008481789576</v>
+      </c>
+      <c r="E10">
+        <v>-0.01681898638936167</v>
+      </c>
+      <c r="F10">
+        <v>0.04096999122564342</v>
+      </c>
+      <c r="G10">
+        <v>0.00622780623177326</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.08043158473682985</v>
+        <v>0.07813678148879351</v>
       </c>
       <c r="C11">
-        <v>0.1281401758491169</v>
+        <v>0.1274493780840301</v>
       </c>
       <c r="D11">
-        <v>0.05737886466224672</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.04458716055001607</v>
+      </c>
+      <c r="E11">
+        <v>0.01407893362969302</v>
+      </c>
+      <c r="F11">
+        <v>0.07768712842289233</v>
+      </c>
+      <c r="G11">
+        <v>-0.008449910008948975</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.08444252121678898</v>
+        <v>0.08005247903750758</v>
       </c>
       <c r="C12">
-        <v>0.1454636122213723</v>
+        <v>0.1471627586151907</v>
       </c>
       <c r="D12">
-        <v>0.06002201822527518</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.05361697403502633</v>
+      </c>
+      <c r="E12">
+        <v>0.003832298934524826</v>
+      </c>
+      <c r="F12">
+        <v>0.08410409613667992</v>
+      </c>
+      <c r="G12">
+        <v>-0.01110174697410286</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.04239706538360672</v>
+        <v>0.04222307656517376</v>
       </c>
       <c r="C13">
-        <v>0.05986456987156375</v>
+        <v>0.06768187199387173</v>
       </c>
       <c r="D13">
-        <v>0.02709823320926705</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.02785785283309323</v>
+      </c>
+      <c r="E13">
+        <v>-0.01044760213771887</v>
+      </c>
+      <c r="F13">
+        <v>0.07627276437315851</v>
+      </c>
+      <c r="G13">
+        <v>-0.01508580091315833</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.02037619790115706</v>
+        <v>0.02311847792388792</v>
       </c>
       <c r="C14">
-        <v>0.040910739127945</v>
+        <v>0.04102020903214331</v>
       </c>
       <c r="D14">
-        <v>0.04914505105630305</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.04032511420043342</v>
+      </c>
+      <c r="E14">
+        <v>0.01046389398413004</v>
+      </c>
+      <c r="F14">
+        <v>0.08592817791085682</v>
+      </c>
+      <c r="G14">
+        <v>-0.0005918027127308771</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0.03168890343745966</v>
+        <v>0.03398361081615162</v>
       </c>
       <c r="C15">
-        <v>0.05754416462935177</v>
+        <v>0.05694381900021709</v>
       </c>
       <c r="D15">
-        <v>0.04475615677236056</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.03972286315796645</v>
+      </c>
+      <c r="E15">
+        <v>-0.006369013026661216</v>
+      </c>
+      <c r="F15">
+        <v>0.03526269972544799</v>
+      </c>
+      <c r="G15">
+        <v>0.007623745705455336</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.05918416869172562</v>
+        <v>0.05904019151299434</v>
       </c>
       <c r="C16">
-        <v>0.1436809403782822</v>
+        <v>0.1433131432778041</v>
       </c>
       <c r="D16">
-        <v>0.06873826999912391</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.05404092012196837</v>
+      </c>
+      <c r="E16">
+        <v>0.02997297044588845</v>
+      </c>
+      <c r="F16">
+        <v>0.08094909154263671</v>
+      </c>
+      <c r="G16">
+        <v>-0.01261990857101452</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.004973699439414008</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.004071593075114485</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>0.002631020883017688</v>
+      </c>
+      <c r="E17">
+        <v>0.008715512444365843</v>
+      </c>
+      <c r="F17">
+        <v>-0.005587894380807833</v>
+      </c>
+      <c r="G17">
+        <v>0.01746198861840482</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
-        <v>0.03473542838800159</v>
+        <v>0.05133599240019196</v>
       </c>
       <c r="C18">
-        <v>0.04356504151391062</v>
+        <v>0.03759105456108802</v>
       </c>
       <c r="D18">
-        <v>-0.00724780095092901</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>0.01183073604034039</v>
+      </c>
+      <c r="E18">
+        <v>-0.00132995679803227</v>
+      </c>
+      <c r="F18">
+        <v>-0.04235086576495097</v>
+      </c>
+      <c r="G18">
+        <v>0.01217252340853783</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1128,180 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.05771105355390732</v>
+        <v>0.05774769252131755</v>
       </c>
       <c r="C20">
-        <v>0.09290237792726443</v>
+        <v>0.09264020846270511</v>
       </c>
       <c r="D20">
-        <v>0.07555250884696688</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.06839224154978071</v>
+      </c>
+      <c r="E20">
+        <v>0.02242687598664853</v>
+      </c>
+      <c r="F20">
+        <v>0.07075213218186249</v>
+      </c>
+      <c r="G20">
+        <v>0.002005901826142235</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.04225256208966059</v>
+        <v>0.04417583130635148</v>
       </c>
       <c r="C21">
-        <v>0.0529871593758057</v>
+        <v>0.05255753023889598</v>
       </c>
       <c r="D21">
-        <v>0.0007826011720206471</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.003042585370844654</v>
+      </c>
+      <c r="E21">
+        <v>-0.007576257190399364</v>
+      </c>
+      <c r="F21">
+        <v>0.07683380684549446</v>
+      </c>
+      <c r="G21">
+        <v>-0.02884193339986907</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.04482791929762157</v>
+        <v>0.04330883718497886</v>
       </c>
       <c r="C22">
-        <v>0.01943092010771268</v>
+        <v>0.02036308033009302</v>
       </c>
       <c r="D22">
-        <v>-0.01465088381598246</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.05176400403404152</v>
+      </c>
+      <c r="E22">
+        <v>0.1141039894149892</v>
+      </c>
+      <c r="F22">
+        <v>-0.02598549358404926</v>
+      </c>
+      <c r="G22">
+        <v>-0.0005380988160603487</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.04483730397431477</v>
+        <v>0.04331677520661648</v>
       </c>
       <c r="C23">
-        <v>0.01942354590632216</v>
+        <v>0.02035675730124484</v>
       </c>
       <c r="D23">
-        <v>-0.01467565421216141</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.05179598964919107</v>
+      </c>
+      <c r="E23">
+        <v>0.1141364898595309</v>
+      </c>
+      <c r="F23">
+        <v>-0.02597814071412005</v>
+      </c>
+      <c r="G23">
+        <v>-0.000504041502720204</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.0680596233913974</v>
+        <v>0.06733560675665176</v>
       </c>
       <c r="C24">
-        <v>0.1355023651728429</v>
+        <v>0.1339525372029732</v>
       </c>
       <c r="D24">
-        <v>0.06327557417665897</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.05423701042245716</v>
+      </c>
+      <c r="E24">
+        <v>0.009096425479792974</v>
+      </c>
+      <c r="F24">
+        <v>0.07305963960150053</v>
+      </c>
+      <c r="G24">
+        <v>-0.01303007073337263</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.07379202343294715</v>
+        <v>0.07199798745152229</v>
       </c>
       <c r="C25">
-        <v>0.1218114344562378</v>
+        <v>0.1200541373967105</v>
       </c>
       <c r="D25">
-        <v>0.04646718890785866</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.03823183843925847</v>
+      </c>
+      <c r="E25">
+        <v>-0.0159386972814813</v>
+      </c>
+      <c r="F25">
+        <v>0.0876989525673145</v>
+      </c>
+      <c r="G25">
+        <v>-0.01862740934391114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.056620305083194</v>
+        <v>0.06086452643305947</v>
       </c>
       <c r="C26">
-        <v>0.06568763209262829</v>
+        <v>0.06651216849411778</v>
       </c>
       <c r="D26">
-        <v>0.02243148355921038</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.0132395661167715</v>
+      </c>
+      <c r="E26">
+        <v>0.01063467512911818</v>
+      </c>
+      <c r="F26">
+        <v>0.0825847392821487</v>
+      </c>
+      <c r="G26">
+        <v>-0.001221721919336318</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1312,249 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.1681838481856</v>
+        <v>0.1709068137270093</v>
       </c>
       <c r="C28">
-        <v>-0.2323080098827462</v>
+        <v>-0.2322337973137</v>
       </c>
       <c r="D28">
-        <v>-0.01708605610128032</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.01995252313513785</v>
+      </c>
+      <c r="E28">
+        <v>-0.06001718015256296</v>
+      </c>
+      <c r="F28">
+        <v>0.1258945340252572</v>
+      </c>
+      <c r="G28">
+        <v>-0.001734342595369678</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.02444729630818384</v>
+        <v>0.02715486926118769</v>
       </c>
       <c r="C29">
-        <v>0.04579607666669513</v>
+        <v>0.04293402852859227</v>
       </c>
       <c r="D29">
-        <v>0.01057492774907634</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.000513059718076636</v>
+      </c>
+      <c r="E29">
+        <v>0.02446582728591696</v>
+      </c>
+      <c r="F29">
+        <v>0.07491046415530062</v>
+      </c>
+      <c r="G29">
+        <v>-0.003044204719584109</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.04090426679384102</v>
+        <v>0.04308238054574767</v>
       </c>
       <c r="C30">
-        <v>0.06800448666715256</v>
+        <v>0.07544406599738636</v>
       </c>
       <c r="D30">
-        <v>0.1161845411549847</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1077694762075823</v>
+      </c>
+      <c r="E30">
+        <v>-0.05154413084171208</v>
+      </c>
+      <c r="F30">
+        <v>0.08326276779533626</v>
+      </c>
+      <c r="G30">
+        <v>0.02028859993157178</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.05299607968795388</v>
+        <v>0.05216552414001917</v>
       </c>
       <c r="C31">
-        <v>0.03278193005711687</v>
+        <v>0.03602341441607065</v>
       </c>
       <c r="D31">
-        <v>0.01286470076739685</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.009809092882369174</v>
+      </c>
+      <c r="E31">
+        <v>0.03617498124185513</v>
+      </c>
+      <c r="F31">
+        <v>0.01430093276569871</v>
+      </c>
+      <c r="G31">
+        <v>-0.02461015871786827</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.04313244335227395</v>
+        <v>0.0481206655348678</v>
       </c>
       <c r="C32">
-        <v>0.04609756441809166</v>
+        <v>0.04350451212861546</v>
       </c>
       <c r="D32">
-        <v>0.02068300133253916</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.0192312851894076</v>
+      </c>
+      <c r="E32">
+        <v>0.0275480190197092</v>
+      </c>
+      <c r="F32">
+        <v>0.006686492560455662</v>
+      </c>
+      <c r="G32">
+        <v>0.01430612068496656</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.07991395509873681</v>
+        <v>0.08313398367377685</v>
       </c>
       <c r="C33">
-        <v>0.1081974085394096</v>
+        <v>0.1165860571745047</v>
       </c>
       <c r="D33">
-        <v>0.06589285511505957</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.05900921919699707</v>
+      </c>
+      <c r="E33">
+        <v>0.02511479297494075</v>
+      </c>
+      <c r="F33">
+        <v>0.07825330276966502</v>
+      </c>
+      <c r="G33">
+        <v>-0.009678892304629486</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.05759502349651635</v>
+        <v>0.05712167181912873</v>
       </c>
       <c r="C34">
-        <v>0.1217206685663723</v>
+        <v>0.1233229489820279</v>
       </c>
       <c r="D34">
-        <v>0.07586965109281089</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.06080497703587899</v>
+      </c>
+      <c r="E34">
+        <v>-0.01362953718411778</v>
+      </c>
+      <c r="F34">
+        <v>0.09035169598659901</v>
+      </c>
+      <c r="G34">
+        <v>0.01601791804256418</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>0.02707631534519963</v>
+        <v>0.02890376876532541</v>
       </c>
       <c r="C35">
-        <v>0.0160558941290666</v>
+        <v>0.01721829106274419</v>
       </c>
       <c r="D35">
-        <v>0.0233623546565253</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01412665351171299</v>
+      </c>
+      <c r="E35">
+        <v>0.02333121138732757</v>
+      </c>
+      <c r="F35">
+        <v>0.04018602422213062</v>
+      </c>
+      <c r="G35">
+        <v>0.02300853481990361</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.02262124416194979</v>
+        <v>0.02742593208861177</v>
       </c>
       <c r="C36">
-        <v>0.04527567191118147</v>
+        <v>0.04571025453765595</v>
       </c>
       <c r="D36">
-        <v>0.05739924419488984</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.04455381669668319</v>
+      </c>
+      <c r="E36">
+        <v>0.01881514117577281</v>
+      </c>
+      <c r="F36">
+        <v>0.04710692386966021</v>
+      </c>
+      <c r="G36">
+        <v>0.08206708854314675</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.003629075277947127</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.005816891487251453</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>0.0007947653464189188</v>
+      </c>
+      <c r="E37">
+        <v>0.001259617978968499</v>
+      </c>
+      <c r="F37">
+        <v>0.009862758264308191</v>
+      </c>
+      <c r="G37">
+        <v>-0.006866598227971967</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1565,88 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.08627004128699585</v>
+        <v>0.07990056040764534</v>
       </c>
       <c r="C39">
-        <v>0.1515495187376884</v>
+        <v>0.1475461576359902</v>
       </c>
       <c r="D39">
-        <v>0.04961834228274097</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.03812578327885684</v>
+      </c>
+      <c r="E39">
+        <v>0.01225485110641527</v>
+      </c>
+      <c r="F39">
+        <v>0.1144166089395988</v>
+      </c>
+      <c r="G39">
+        <v>-0.05553042836597327</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.04548554912455956</v>
+        <v>0.05099938125728649</v>
       </c>
       <c r="C40">
-        <v>0.05672341847629203</v>
+        <v>0.06047206880360857</v>
       </c>
       <c r="D40">
-        <v>0.01250484662613886</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.002767095794842109</v>
+      </c>
+      <c r="E40">
+        <v>-0.001154302996103083</v>
+      </c>
+      <c r="F40">
+        <v>0.05911457138125498</v>
+      </c>
+      <c r="G40">
+        <v>0.03446432935245429</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.02721574236235833</v>
+        <v>0.02907910643920854</v>
       </c>
       <c r="C41">
-        <v>0.02108713990296086</v>
+        <v>0.02233809799171249</v>
       </c>
       <c r="D41">
-        <v>-0.006956270052235676</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.006161418812889255</v>
+      </c>
+      <c r="E41">
+        <v>0.00433338126569452</v>
+      </c>
+      <c r="F41">
+        <v>-0.01314239882281559</v>
+      </c>
+      <c r="G41">
+        <v>0.01437365506668293</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,122 +1657,203 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.04251052650263856</v>
+        <v>0.04181261606674257</v>
       </c>
       <c r="C43">
-        <v>0.03701954337560905</v>
+        <v>0.03500130509100215</v>
       </c>
       <c r="D43">
-        <v>0.0004059596490744311</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.004806037829380648</v>
+      </c>
+      <c r="E43">
+        <v>0.0236958079484326</v>
+      </c>
+      <c r="F43">
+        <v>0.02401205872501503</v>
+      </c>
+      <c r="G43">
+        <v>-0.00439266539730164</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.05540345766280971</v>
+        <v>0.06350841506073583</v>
       </c>
       <c r="C44">
-        <v>0.07519979264615413</v>
+        <v>0.08218568798843076</v>
       </c>
       <c r="D44">
-        <v>0.2847037821837337</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.2582499478620586</v>
+      </c>
+      <c r="E44">
+        <v>-0.0227435772468942</v>
+      </c>
+      <c r="F44">
+        <v>0.191616845900603</v>
+      </c>
+      <c r="G44">
+        <v>0.1715738613974867</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>6.292684672673087e-06</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>0.0001538432619471299</v>
       </c>
       <c r="D45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>0.000188766881952625</v>
+      </c>
+      <c r="E45">
+        <v>-0.0001617750007343144</v>
+      </c>
+      <c r="F45">
+        <v>0.0002418206417755348</v>
+      </c>
+      <c r="G45">
+        <v>-0.0002864374859078478</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.0266090154370361</v>
+        <v>0.0270222643835615</v>
       </c>
       <c r="C46">
-        <v>0.03002923884712508</v>
+        <v>0.02877780955362259</v>
       </c>
       <c r="D46">
-        <v>0.01264521898277389</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.004087849314557319</v>
+      </c>
+      <c r="E46">
+        <v>0.03372224109305091</v>
+      </c>
+      <c r="F46">
+        <v>0.0649498363948188</v>
+      </c>
+      <c r="G46">
+        <v>-0.03432434635397147</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.05171820212128302</v>
+        <v>0.0508451262126809</v>
       </c>
       <c r="C47">
-        <v>0.02241637025214318</v>
+        <v>0.02419945592301642</v>
       </c>
       <c r="D47">
-        <v>-0.02296361643674632</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.02228074231746449</v>
+      </c>
+      <c r="E47">
+        <v>0.05306050091596458</v>
+      </c>
+      <c r="F47">
+        <v>-0.01582800337378175</v>
+      </c>
+      <c r="G47">
+        <v>-0.03266729522371136</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.04715773014644858</v>
+        <v>0.05072548834105581</v>
       </c>
       <c r="C48">
-        <v>0.06580949502100117</v>
+        <v>0.06449205168725052</v>
       </c>
       <c r="D48">
-        <v>0.0183597844920329</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.01836125005985639</v>
+      </c>
+      <c r="E48">
+        <v>-0.01758395203420568</v>
+      </c>
+      <c r="F48">
+        <v>0.05410653158249783</v>
+      </c>
+      <c r="G48">
+        <v>-0.02510439542913758</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
-        <v>0.1949871239429642</v>
+        <v>0.1981170457564252</v>
       </c>
       <c r="C49">
-        <v>-0.0159899756572077</v>
+        <v>-0.009080202014239062</v>
       </c>
       <c r="D49">
-        <v>0.02445851638497165</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.0421762277235643</v>
+      </c>
+      <c r="E49">
+        <v>-0.02526823552737443</v>
+      </c>
+      <c r="F49">
+        <v>-0.05702572856014306</v>
+      </c>
+      <c r="G49">
+        <v>0.01073192905161827</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.05073088822475579</v>
+        <v>0.05226355021730079</v>
       </c>
       <c r="C50">
-        <v>0.02972593789741062</v>
+        <v>0.03265466274918227</v>
       </c>
       <c r="D50">
-        <v>0.02250718097916366</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02229044138391294</v>
+      </c>
+      <c r="E50">
+        <v>0.02634791520145735</v>
+      </c>
+      <c r="F50">
+        <v>0.007233460792803688</v>
+      </c>
+      <c r="G50">
+        <v>-0.02284914498964262</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1864,134 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
-        <v>0.1451266323989579</v>
+        <v>0.1387623886253243</v>
       </c>
       <c r="C52">
-        <v>0.03593978668657831</v>
+        <v>0.03714135604034218</v>
       </c>
       <c r="D52">
-        <v>0.05849245224829593</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.05555944916447721</v>
+      </c>
+      <c r="E52">
+        <v>0.03030722129776785</v>
+      </c>
+      <c r="F52">
+        <v>-0.05901185693923156</v>
+      </c>
+      <c r="G52">
+        <v>-0.0250949095059465</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.1752638862641195</v>
+        <v>0.166288245732936</v>
       </c>
       <c r="C53">
-        <v>0.004144364496408815</v>
+        <v>0.00758182150736497</v>
       </c>
       <c r="D53">
-        <v>0.1013714010037269</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.1056118246447707</v>
+      </c>
+      <c r="E53">
+        <v>0.03150862242793506</v>
+      </c>
+      <c r="F53">
+        <v>-0.1013616758460558</v>
+      </c>
+      <c r="G53">
+        <v>-0.05616564016880225</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.01144103210865811</v>
+        <v>0.01460112088016732</v>
       </c>
       <c r="C54">
-        <v>0.0284909026438611</v>
+        <v>0.02970304925786918</v>
       </c>
       <c r="D54">
-        <v>0.01384298116705242</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.01143465065821622</v>
+      </c>
+      <c r="E54">
+        <v>0.01508102177994765</v>
+      </c>
+      <c r="F54">
+        <v>0.05762303827720702</v>
+      </c>
+      <c r="G54">
+        <v>0.004846900375898274</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.1207687285033758</v>
+        <v>0.1170410137713039</v>
       </c>
       <c r="C55">
-        <v>0.005976415763260625</v>
+        <v>0.01221615442361011</v>
       </c>
       <c r="D55">
-        <v>0.06617141278963848</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.06196596243083274</v>
+      </c>
+      <c r="E55">
+        <v>0.05415222930234286</v>
+      </c>
+      <c r="F55">
+        <v>-0.02799052706256617</v>
+      </c>
+      <c r="G55">
+        <v>-0.06507524608235689</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1811596170841334</v>
+        <v>0.1737163625764073</v>
       </c>
       <c r="C56">
-        <v>-0.002063240254588355</v>
+        <v>-0.000578919292707627</v>
       </c>
       <c r="D56">
-        <v>0.05118105500533937</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.05881666257724112</v>
+      </c>
+      <c r="E56">
+        <v>0.04734509074931546</v>
+      </c>
+      <c r="F56">
+        <v>-0.1399161480476961</v>
+      </c>
+      <c r="G56">
+        <v>-0.05835421032695331</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +2002,433 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.04632926728580334</v>
+        <v>0.04594816783856613</v>
       </c>
       <c r="C58">
-        <v>0.09174866485525998</v>
+        <v>0.09833845545584033</v>
       </c>
       <c r="D58">
-        <v>-0.005391596958398653</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.008103205155297879</v>
+      </c>
+      <c r="E58">
+        <v>0.04104081094183219</v>
+      </c>
+      <c r="F58">
+        <v>0.03925948911049814</v>
+      </c>
+      <c r="G58">
+        <v>-0.02039683236209437</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1840152966107183</v>
+        <v>0.1872348553789116</v>
       </c>
       <c r="C59">
-        <v>-0.1902180480039802</v>
+        <v>-0.1927454272214859</v>
       </c>
       <c r="D59">
-        <v>-0.07952605183723611</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.07894154594517147</v>
+      </c>
+      <c r="E59">
+        <v>-0.01025759012563132</v>
+      </c>
+      <c r="F59">
+        <v>0.04503374046753182</v>
+      </c>
+      <c r="G59">
+        <v>-0.03980103279755991</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.217800734948926</v>
+        <v>0.2124303459804697</v>
       </c>
       <c r="C60">
-        <v>0.0168454665933284</v>
+        <v>0.02319195082115098</v>
       </c>
       <c r="D60">
-        <v>-0.05398011135924825</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.02932673735617275</v>
+      </c>
+      <c r="E60">
+        <v>0.01149742311091887</v>
+      </c>
+      <c r="F60">
+        <v>-0.2152353929399552</v>
+      </c>
+      <c r="G60">
+        <v>-0.07010533403822994</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.06731148101948115</v>
+        <v>0.06390176578975222</v>
       </c>
       <c r="C61">
-        <v>0.1214663502544876</v>
+        <v>0.1192815352422774</v>
       </c>
       <c r="D61">
-        <v>0.0380681506281719</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.02672828631444804</v>
+      </c>
+      <c r="E61">
+        <v>0.02417382753284799</v>
+      </c>
+      <c r="F61">
+        <v>0.07680555041273161</v>
+      </c>
+      <c r="G61">
+        <v>-0.02179572692610814</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
-        <v>0.1685558650633475</v>
+        <v>0.1646734234781435</v>
       </c>
       <c r="C62">
-        <v>-0.004771132728093864</v>
+        <v>-0.001942060987870712</v>
       </c>
       <c r="D62">
-        <v>0.0406482404064377</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.0471983573080355</v>
+      </c>
+      <c r="E62">
+        <v>0.04999920247688713</v>
+      </c>
+      <c r="F62">
+        <v>-0.107391657783363</v>
+      </c>
+      <c r="G62">
+        <v>-0.05256031268777994</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.03842808216059643</v>
+        <v>0.04368807017273826</v>
       </c>
       <c r="C63">
-        <v>0.06747018165619452</v>
+        <v>0.07126307977542921</v>
       </c>
       <c r="D63">
-        <v>0.02915778930926096</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.0165381555552595</v>
+      </c>
+      <c r="E63">
+        <v>0.02724718834474399</v>
+      </c>
+      <c r="F63">
+        <v>0.05157493153069991</v>
+      </c>
+      <c r="G63">
+        <v>0.02352979821542268</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.1125214112851663</v>
+        <v>0.1102644877141605</v>
       </c>
       <c r="C64">
-        <v>0.04998271835663259</v>
+        <v>0.05366384356823482</v>
       </c>
       <c r="D64">
-        <v>0.03681081010000782</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.03965432286861936</v>
+      </c>
+      <c r="E64">
+        <v>0.01541223786651065</v>
+      </c>
+      <c r="F64">
+        <v>-0.03267279185480686</v>
+      </c>
+      <c r="G64">
+        <v>-0.001201882025986244</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.1564558452354727</v>
+        <v>0.1598007663625235</v>
       </c>
       <c r="C65">
-        <v>-0.05762391337156137</v>
+        <v>-0.04881735885783779</v>
       </c>
       <c r="D65">
-        <v>0.04454772747660016</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.05157702915715942</v>
+      </c>
+      <c r="E65">
+        <v>0.007284932873210446</v>
+      </c>
+      <c r="F65">
+        <v>-0.00961031757488277</v>
+      </c>
+      <c r="G65">
+        <v>-0.018129059947727</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.1045753387829033</v>
+        <v>0.09730315462462619</v>
       </c>
       <c r="C66">
-        <v>0.1322828557295225</v>
+        <v>0.1322921036646659</v>
       </c>
       <c r="D66">
-        <v>0.05363300967767251</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.03907603995075611</v>
+      </c>
+      <c r="E66">
+        <v>0.01040461131052537</v>
+      </c>
+      <c r="F66">
+        <v>0.09521393422057876</v>
+      </c>
+      <c r="G66">
+        <v>-0.00805552247568864</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.05820028208677175</v>
+        <v>0.0487926424107551</v>
       </c>
       <c r="C67">
-        <v>0.07567064968590943</v>
+        <v>0.06943526067225553</v>
       </c>
       <c r="D67">
-        <v>-0.05297159536759373</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.06038117986069481</v>
+      </c>
+      <c r="E67">
+        <v>0.06243625643545422</v>
+      </c>
+      <c r="F67">
+        <v>-0.03635399802400839</v>
+      </c>
+      <c r="G67">
+        <v>0.002136169815556961</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1369067933049812</v>
+        <v>0.1398245672123758</v>
       </c>
       <c r="C68">
-        <v>-0.2478781641441709</v>
+        <v>-0.2500931813981377</v>
       </c>
       <c r="D68">
-        <v>-0.03570674349009394</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.02957507942691048</v>
+      </c>
+      <c r="E68">
+        <v>-0.0950099901870103</v>
+      </c>
+      <c r="F68">
+        <v>0.1091137218222585</v>
+      </c>
+      <c r="G68">
+        <v>-0.03669428871320688</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.03939341721812006</v>
+        <v>0.03882651246936006</v>
       </c>
       <c r="C69">
-        <v>0.01356276196430481</v>
+        <v>0.01518727354149144</v>
       </c>
       <c r="D69">
-        <v>0.007331560485809621</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.005027581446279904</v>
+      </c>
+      <c r="E69">
+        <v>0.06126719845983303</v>
+      </c>
+      <c r="F69">
+        <v>-0.04316676123359923</v>
+      </c>
+      <c r="G69">
+        <v>0.0247771133560453</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
-        <v>0.0705027143912768</v>
+        <v>0.07188113167563707</v>
       </c>
       <c r="C70">
-        <v>0.07473672624422571</v>
+        <v>0.06891316753333905</v>
       </c>
       <c r="D70">
-        <v>-0.4872452535554421</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.3876938316266355</v>
+      </c>
+      <c r="E70">
+        <v>0.1167371006560882</v>
+      </c>
+      <c r="F70">
+        <v>-0.4471634956568</v>
+      </c>
+      <c r="G70">
+        <v>-0.3945382467614619</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1587430635629415</v>
+        <v>0.1630855786691777</v>
       </c>
       <c r="C71">
-        <v>-0.2573090268647307</v>
+        <v>-0.2566280654444636</v>
       </c>
       <c r="D71">
-        <v>-0.04292589826411054</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.035290431310136</v>
+      </c>
+      <c r="E71">
+        <v>-0.1070142456629068</v>
+      </c>
+      <c r="F71">
+        <v>0.1127665281450253</v>
+      </c>
+      <c r="G71">
+        <v>-0.03676180284089028</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.1424031933548331</v>
+        <v>0.147504110895126</v>
       </c>
       <c r="C72">
-        <v>0.01129452384608768</v>
+        <v>0.01021694495683279</v>
       </c>
       <c r="D72">
-        <v>0.07717585328762212</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.06356692896721558</v>
+      </c>
+      <c r="E72">
+        <v>0.04600111091221378</v>
+      </c>
+      <c r="F72">
+        <v>-0.01734863360326226</v>
+      </c>
+      <c r="G72">
+        <v>0.008040299618371652</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.1929161056614593</v>
+        <v>0.2003965336805578</v>
       </c>
       <c r="C73">
-        <v>0.0196534404547569</v>
+        <v>0.02707320689798776</v>
       </c>
       <c r="D73">
-        <v>0.04988954668740453</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.05357397693490697</v>
+      </c>
+      <c r="E73">
+        <v>0.07630359702363591</v>
+      </c>
+      <c r="F73">
+        <v>-0.0970258673170344</v>
+      </c>
+      <c r="G73">
+        <v>0.02268077410414699</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.08742160763113739</v>
+        <v>0.08660606332498111</v>
       </c>
       <c r="C74">
-        <v>0.007644815660686727</v>
+        <v>0.01391277475132712</v>
       </c>
       <c r="D74">
-        <v>0.07617914712009127</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.07933686006499427</v>
+      </c>
+      <c r="E74">
+        <v>0.03337582327902888</v>
+      </c>
+      <c r="F74">
+        <v>-0.05898830369316832</v>
+      </c>
+      <c r="G74">
+        <v>0.006721636021281367</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.124378533631959</v>
+        <v>0.116873208239828</v>
       </c>
       <c r="C75">
-        <v>0.02161543261078269</v>
+        <v>0.0247847450050206</v>
       </c>
       <c r="D75">
-        <v>0.05833042362501232</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.05019732438865527</v>
+      </c>
+      <c r="E75">
+        <v>0.06845816556976357</v>
+      </c>
+      <c r="F75">
+        <v>-0.05113753300452725</v>
+      </c>
+      <c r="G75">
+        <v>-0.03927315221070144</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2439,594 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.07349052358496007</v>
+        <v>0.0878175834233664</v>
       </c>
       <c r="C77">
-        <v>0.1220532143633397</v>
+        <v>0.1195357740883262</v>
       </c>
       <c r="D77">
-        <v>0.06892461406282158</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.07342310033469823</v>
+      </c>
+      <c r="E77">
+        <v>-0.006499876459249711</v>
+      </c>
+      <c r="F77">
+        <v>0.0758926121176437</v>
+      </c>
+      <c r="G77">
+        <v>-0.1187221624939781</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.09149075934530805</v>
+        <v>0.09405660084896317</v>
       </c>
       <c r="C78">
-        <v>0.1388371028823309</v>
+        <v>0.1349781831509999</v>
       </c>
       <c r="D78">
-        <v>0.09222096138999415</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.07067376499668239</v>
+      </c>
+      <c r="E78">
+        <v>-0.002349107120366889</v>
+      </c>
+      <c r="F78">
+        <v>0.1112641466200953</v>
+      </c>
+      <c r="G78">
+        <v>-0.115615364314714</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0.1681665765404149</v>
+        <v>0.163116401380648</v>
       </c>
       <c r="C79">
-        <v>0.01954420423492058</v>
+        <v>0.02034046262662256</v>
       </c>
       <c r="D79">
-        <v>0.03481668173330573</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.03274173682479142</v>
+      </c>
+      <c r="E79">
+        <v>0.04377211103777671</v>
+      </c>
+      <c r="F79">
+        <v>-0.0467022160804751</v>
+      </c>
+      <c r="G79">
+        <v>-0.04138035046601771</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.07628227501961569</v>
+        <v>0.07376443604636647</v>
       </c>
       <c r="C80">
-        <v>0.0596375564270396</v>
+        <v>0.05847804983208012</v>
       </c>
       <c r="D80">
-        <v>0.008685251756605278</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.01421626182315391</v>
+      </c>
+      <c r="E80">
+        <v>0.04692766563485561</v>
+      </c>
+      <c r="F80">
+        <v>0.116727177329542</v>
+      </c>
+      <c r="G80">
+        <v>0.08732005001610395</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1114903870337694</v>
+        <v>0.1055054078349491</v>
       </c>
       <c r="C81">
-        <v>-0.01443381030670304</v>
+        <v>-0.01071777056462242</v>
       </c>
       <c r="D81">
-        <v>0.03016132797350821</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.02806589928928372</v>
+      </c>
+      <c r="E81">
+        <v>0.06633891105769635</v>
+      </c>
+      <c r="F81">
+        <v>-0.05859374464930676</v>
+      </c>
+      <c r="G81">
+        <v>-0.006947030311806704</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.1608180802464967</v>
+        <v>0.1575030187279311</v>
       </c>
       <c r="C82">
-        <v>-0.02293842074608537</v>
+        <v>-0.01572635452187959</v>
       </c>
       <c r="D82">
-        <v>0.08866513538650884</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.09496882887544762</v>
+      </c>
+      <c r="E82">
+        <v>0.02380179158909812</v>
+      </c>
+      <c r="F82">
+        <v>-0.09056375696321636</v>
+      </c>
+      <c r="G82">
+        <v>0.01220884863582888</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.05372329268513007</v>
+        <v>0.04961894416207101</v>
       </c>
       <c r="C83">
-        <v>0.05848507255598946</v>
+        <v>0.05537958508485032</v>
       </c>
       <c r="D83">
-        <v>-0.007918732723225821</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.009737488707278487</v>
+      </c>
+      <c r="E83">
+        <v>0.005966159475464775</v>
+      </c>
+      <c r="F83">
+        <v>0.0009667014616323406</v>
+      </c>
+      <c r="G83">
+        <v>-0.01718733339778606</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0.05194634682542782</v>
+        <v>0.04915526672635884</v>
       </c>
       <c r="C84">
-        <v>0.07429245814432853</v>
+        <v>0.07240906602384933</v>
       </c>
       <c r="D84">
-        <v>0.008953350159720723</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.008047165498667351</v>
+      </c>
+      <c r="E84">
+        <v>0.006257836689821243</v>
+      </c>
+      <c r="F84">
+        <v>-0.01817919490902424</v>
+      </c>
+      <c r="G84">
+        <v>-0.03152454434263091</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.1409713651601683</v>
+        <v>0.1347891083917568</v>
       </c>
       <c r="C85">
-        <v>0.01191759298155964</v>
+        <v>0.01515304717578944</v>
       </c>
       <c r="D85">
-        <v>0.09322341322360914</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.08763248213522874</v>
+      </c>
+      <c r="E85">
+        <v>0.0367340562847922</v>
+      </c>
+      <c r="F85">
+        <v>-0.03141606920310493</v>
+      </c>
+      <c r="G85">
+        <v>-0.02664380358112862</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.08747758340777151</v>
+        <v>0.08326441415171407</v>
       </c>
       <c r="C86">
-        <v>0.1082039285264391</v>
+        <v>0.1095505479044527</v>
       </c>
       <c r="D86">
-        <v>-0.5003127491962566</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.649884429352685</v>
+      </c>
+      <c r="E86">
+        <v>0.4297692619740843</v>
+      </c>
+      <c r="F86">
+        <v>0.4505642336414897</v>
+      </c>
+      <c r="G86">
+        <v>0.03664258230126265</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.0885807356901081</v>
+        <v>0.08779140473698298</v>
       </c>
       <c r="C87">
-        <v>0.08215665005733992</v>
+        <v>0.08387791136636537</v>
       </c>
       <c r="D87">
-        <v>0.04903952321448508</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.045400786589648</v>
+      </c>
+      <c r="E87">
+        <v>-0.1010859618637549</v>
+      </c>
+      <c r="F87">
+        <v>0.09634304913246267</v>
+      </c>
+      <c r="G87">
+        <v>0.05934067026245445</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.06169749572342715</v>
+        <v>0.06139113787849728</v>
       </c>
       <c r="C88">
-        <v>0.0612545424366646</v>
+        <v>0.06233974165937255</v>
       </c>
       <c r="D88">
-        <v>0.01514645177740988</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.0160507480105004</v>
+      </c>
+      <c r="E88">
+        <v>0.01634216950447607</v>
+      </c>
+      <c r="F88">
+        <v>-0.02407171871291605</v>
+      </c>
+      <c r="G88">
+        <v>-0.009827120681819174</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.1445051892888268</v>
+        <v>0.1472249152587897</v>
       </c>
       <c r="C89">
-        <v>-0.205927378554901</v>
+        <v>-0.2164579512256182</v>
       </c>
       <c r="D89">
-        <v>-0.02317605627567801</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.02316057804777723</v>
+      </c>
+      <c r="E89">
+        <v>-0.09535378586137808</v>
+      </c>
+      <c r="F89">
+        <v>0.08925637900825178</v>
+      </c>
+      <c r="G89">
+        <v>-0.002948563629570478</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.1727854055148942</v>
+        <v>0.1802457278178632</v>
       </c>
       <c r="C90">
-        <v>-0.2362254496010134</v>
+        <v>-0.2430206905817582</v>
       </c>
       <c r="D90">
-        <v>-0.05807306822306463</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.05059956518239269</v>
+      </c>
+      <c r="E90">
+        <v>-0.1376750061287623</v>
+      </c>
+      <c r="F90">
+        <v>0.1310815273613601</v>
+      </c>
+      <c r="G90">
+        <v>-0.02231366932130863</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.1265418280798421</v>
+        <v>0.1205527381944859</v>
       </c>
       <c r="C91">
-        <v>-0.0204705745496368</v>
+        <v>-0.01825630148565529</v>
       </c>
       <c r="D91">
-        <v>0.02475985859325235</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.01499264203390735</v>
+      </c>
+      <c r="E91">
+        <v>0.09740005539199773</v>
+      </c>
+      <c r="F91">
+        <v>-0.08593881771625059</v>
+      </c>
+      <c r="G91">
+        <v>0.008962405134075693</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.1676487313633506</v>
+        <v>0.1698854442457229</v>
       </c>
       <c r="C92">
-        <v>-0.2703775197502085</v>
+        <v>-0.2804594572709359</v>
       </c>
       <c r="D92">
-        <v>-0.05587432779039857</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.04339630992296236</v>
+      </c>
+      <c r="E92">
+        <v>-0.09575171732706164</v>
+      </c>
+      <c r="F92">
+        <v>0.1689353418360488</v>
+      </c>
+      <c r="G92">
+        <v>-0.08247315129025151</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.1734636278029942</v>
+        <v>0.1811096765364183</v>
       </c>
       <c r="C93">
-        <v>-0.2303058306480396</v>
+        <v>-0.2365883708369834</v>
       </c>
       <c r="D93">
-        <v>-0.02980761732949861</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.0223315889005473</v>
+      </c>
+      <c r="E93">
+        <v>-0.07046017119898318</v>
+      </c>
+      <c r="F93">
+        <v>0.08330707482289028</v>
+      </c>
+      <c r="G93">
+        <v>-0.07500309322247392</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.1204988418763085</v>
+        <v>0.1147817351957412</v>
       </c>
       <c r="C94">
-        <v>0.03348073609703343</v>
+        <v>0.03454638284354988</v>
       </c>
       <c r="D94">
-        <v>0.05039761662609319</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04233813403256401</v>
+      </c>
+      <c r="E94">
+        <v>0.06641161241035162</v>
+      </c>
+      <c r="F94">
+        <v>-0.04981665137226408</v>
+      </c>
+      <c r="G94">
+        <v>-0.03187857253763603</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.1208708569453424</v>
+        <v>0.1238076607908862</v>
       </c>
       <c r="C95">
-        <v>0.1110353070155332</v>
+        <v>0.1184371216242503</v>
       </c>
       <c r="D95">
-        <v>0.00433990102568443</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.002874441974642352</v>
+      </c>
+      <c r="E95">
+        <v>0.04167571029080108</v>
+      </c>
+      <c r="F95">
+        <v>0.04257086567928541</v>
+      </c>
+      <c r="G95">
+        <v>-0.006952848540245625</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
-        <v>0.123290964863984</v>
+        <v>0.121580061570325</v>
       </c>
       <c r="C96">
-        <v>0.1283718210013437</v>
+        <v>0.1349730725042066</v>
       </c>
       <c r="D96">
-        <v>-0.04608808233035466</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.02228708671841707</v>
+      </c>
+      <c r="E96">
+        <v>0.07080195640438759</v>
+      </c>
+      <c r="F96">
+        <v>-0.1640712320629838</v>
+      </c>
+      <c r="G96">
+        <v>-0.04975110496745015</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
-        <v>0.191973612002867</v>
+        <v>0.1963781950543377</v>
       </c>
       <c r="C97">
-        <v>-0.0115473216358105</v>
+        <v>-0.01354730501698549</v>
       </c>
       <c r="D97">
-        <v>-0.1285275307144461</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.1666842806902626</v>
+      </c>
+      <c r="E97">
+        <v>0.06216299186647919</v>
+      </c>
+      <c r="F97">
+        <v>-0.2593999230806902</v>
+      </c>
+      <c r="G97">
+        <v>0.8380014836956926</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.1976316199912116</v>
+        <v>0.2034307570518372</v>
       </c>
       <c r="C98">
-        <v>0.02183224874040995</v>
+        <v>0.02775556363583613</v>
       </c>
       <c r="D98">
-        <v>-0.1203779078504509</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.09709335685760925</v>
+      </c>
+      <c r="E98">
+        <v>-0.04721679991374786</v>
+      </c>
+      <c r="F98">
+        <v>-0.1024513542954803</v>
+      </c>
+      <c r="G98">
+        <v>-0.01795398114433667</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
-        <v>0.05471631838900126</v>
+        <v>0.05449401585415868</v>
       </c>
       <c r="C99">
-        <v>0.05747956854049742</v>
+        <v>0.05937528304530775</v>
       </c>
       <c r="D99">
-        <v>0.008980105260089744</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.005982768616396874</v>
+      </c>
+      <c r="E99">
+        <v>0.006487439126324894</v>
+      </c>
+      <c r="F99">
+        <v>0.03951463438322884</v>
+      </c>
+      <c r="G99">
+        <v>0.001604925317917343</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
-        <v>0.1134398899188804</v>
+        <v>0.1076319505596229</v>
       </c>
       <c r="C100">
-        <v>0.379508365624436</v>
+        <v>0.347941146448966</v>
       </c>
       <c r="D100">
-        <v>-0.4439236139134059</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>0.3795276147887786</v>
+      </c>
+      <c r="E100">
+        <v>-0.7792394863787542</v>
+      </c>
+      <c r="F100">
+        <v>-0.02568918837953486</v>
+      </c>
+      <c r="G100">
+        <v>0.02516917858235557</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.02438780886749598</v>
+        <v>0.02710182405451129</v>
       </c>
       <c r="C101">
-        <v>0.04538320625645764</v>
+        <v>0.04249144251431484</v>
       </c>
       <c r="D101">
-        <v>0.006586429822522467</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.002363787797406676</v>
+      </c>
+      <c r="E101">
+        <v>0.02519516089887821</v>
+      </c>
+      <c r="F101">
+        <v>0.06944509143138496</v>
+      </c>
+      <c r="G101">
+        <v>-0.005953838945425026</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3037,19 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
